--- a/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
+++ b/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,6 +34,41 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -43,8 +78,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -66,108 +100,74 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,145 +178,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,37 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,24 +369,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,6 +398,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +460,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -507,115 +507,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,6 +686,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -953,7 +1021,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="D11 C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1000,12 +1068,12 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Mz706152</t>
+          <t>Cp847520</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Tl123456</t>
+          <t>Mz706152</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>
@@ -1023,12 +1091,12 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Hr458236</t>
+          <t>Uf061985</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>Tl123456</t>
+          <t>Hr458236</t>
         </is>
       </c>
       <c r="E3" s="2" t="n"/>

--- a/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
+++ b/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,6 +35,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -42,43 +56,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,6 +71,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -100,23 +85,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -131,32 +102,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,6 +123,51 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,187 +178,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +387,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -402,11 +411,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,30 +452,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -464,8 +464,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -507,119 +507,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,9 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -686,74 +683,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1018,13 +947,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col width="32.5" customWidth="1" style="1" min="1" max="1"/>
     <col width="17.5" customWidth="1" style="1" min="2" max="2"/>
@@ -1058,53 +987,27 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>10000000020@uitest.com</t>
+          <t>tyler.tang@test.com</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>1200008350</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>1000005349</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Cp847520</t>
+          <t>Tc160752</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Mz706152</t>
+          <t>Sy753924</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>10000000025@uitest.com</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>1200008353</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Uf061985</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Hr458236</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" tooltip="mailto:10000000020@uitest.com" display="10000000020@uitest.com" r:id="rId1"/>
-    <hyperlink ref="A3" tooltip="mailto:10000000025@uitest.com" display="10000000025@uitest.com" r:id="rId2"/>
+    <hyperlink ref="A2" tooltip="mailto:tyler.tang@test.com" display="tyler.tang@test.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
+++ b/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
@@ -35,6 +35,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -42,14 +56,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,6 +96,30 @@
       <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,39 +133,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -117,57 +162,12 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,19 +178,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,163 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,11 +387,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,6 +413,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,30 +461,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -460,15 +469,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -510,112 +510,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,7 +950,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -995,12 +995,12 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Tc160752</t>
+          <t>Zu056312</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Sy753924</t>
+          <t>Ol784950</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>

--- a/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
+++ b/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="11940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,14 +35,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -51,36 +45,6 @@
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,6 +53,57 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,30 +148,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,6 +161,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,37 +178,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,145 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,6 +369,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -387,17 +402,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,8 +429,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,30 +439,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -507,115 +507,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,7 +950,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="$A10:$XFD1048576 E9:XFD9 A9:C9 D8:XFD8 A8:B8 E7:XFD7 A7:C7 $A1:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -995,12 +995,12 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Zu056312</t>
+          <t>Sz576294</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Ol784950</t>
+          <t>Tl123456</t>
         </is>
       </c>
       <c r="E2" s="2" t="n"/>

--- a/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
+++ b/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
@@ -995,7 +995,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Sz576294</t>
+          <t>Wu581046</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">

--- a/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
+++ b/demo/change_psword/test_excel_data/chang_psword_incp.xlsx
@@ -995,7 +995,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Wu581046</t>
+          <t>Cy341867</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
